--- a/Excel/temperatura.xlsx
+++ b/Excel/temperatura.xlsx
@@ -43,7 +43,7 @@
     <definedName name="Продукт_9">#REF!</definedName>
     <definedName name="Продукти">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Град</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Декември</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -819,8 +822,8 @@
       <c r="F5">
         <v>9.6</v>
       </c>
-      <c r="G5">
-        <v>15</v>
+      <c r="G5" t="s">
+        <v>20</v>
       </c>
       <c r="H5">
         <v>22</v>
